--- a/data/raw/FORESTRYdata/2024/林業署獼猴調查樣區列表.xlsx
+++ b/data/raw/FORESTRYdata/2024/林業署獼猴調查樣區列表.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\data\raw\FORESTRYdata\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDBE6D0-2728-4C28-A0A4-308EE0FDFAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EB9FD7-FEC8-40C0-AFA9-2DB5D2DB7ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12840" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$386</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$397</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="453">
   <si>
     <t>宜蘭</t>
   </si>
@@ -1498,7 +1498,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1810,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="C394" sqref="C394"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -7318,6 +7318,9 @@
       <c r="C395" t="s">
         <v>449</v>
       </c>
+      <c r="D395" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="4" t="s">
@@ -7342,7 +7345,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D386" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D397" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/data/raw/FORESTRYdata/2024/林業署獼猴調查樣區列表.xlsx
+++ b/data/raw/FORESTRYdata/2024/林業署獼猴調查樣區列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\data\raw\FORESTRYdata\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EB9FD7-FEC8-40C0-AFA9-2DB5D2DB7ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21B72B2-A7DE-4FEA-9C6A-7D31FB5C8697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12840" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1808,10 +1808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D312" sqref="D312"/>
+      <selection activeCell="D400" sqref="D400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1830,7 +1831,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" hidden="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" hidden="1">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" hidden="1">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" hidden="1">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" hidden="1">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" hidden="1">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" hidden="1">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" hidden="1">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" hidden="1">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" hidden="1">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" hidden="1">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" hidden="1">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" hidden="1">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" hidden="1">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" hidden="1">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" hidden="1">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" hidden="1">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" hidden="1">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" hidden="1">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" hidden="1">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" hidden="1">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" hidden="1">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" hidden="1">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" hidden="1">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" hidden="1">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" hidden="1">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" hidden="1">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" hidden="1">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" hidden="1">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" hidden="1">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" hidden="1">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" hidden="1">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" hidden="1">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" hidden="1">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" hidden="1">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" hidden="1">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" hidden="1">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" hidden="1">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" hidden="1">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" hidden="1">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" hidden="1">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" hidden="1">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" hidden="1">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" hidden="1">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" hidden="1">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" hidden="1">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" hidden="1">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" hidden="1">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" hidden="1">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" hidden="1">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" hidden="1">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" hidden="1">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" hidden="1">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" hidden="1">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" hidden="1">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" hidden="1">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" hidden="1">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" hidden="1">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" hidden="1">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" hidden="1">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" hidden="1">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" hidden="1">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" hidden="1">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" hidden="1">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" hidden="1">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" hidden="1">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" hidden="1">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" hidden="1">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" hidden="1">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" hidden="1">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" hidden="1">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" hidden="1">
       <c r="A84" t="s">
         <v>48</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" hidden="1">
       <c r="A86" t="s">
         <v>48</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" hidden="1">
       <c r="A87" t="s">
         <v>48</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" hidden="1">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -3048,7 +3049,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" hidden="1">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" hidden="1">
       <c r="A90" t="s">
         <v>48</v>
       </c>
@@ -3076,7 +3077,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75">
+    <row r="91" spans="1:4" ht="15.75" hidden="1">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75">
+    <row r="92" spans="1:4" ht="15.75" hidden="1">
       <c r="A92" t="s">
         <v>48</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75">
+    <row r="93" spans="1:4" ht="15.75" hidden="1">
       <c r="A93" t="s">
         <v>48</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75">
+    <row r="94" spans="1:4" ht="15.75" hidden="1">
       <c r="A94" t="s">
         <v>48</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75">
+    <row r="96" spans="1:4" ht="15.75" hidden="1">
       <c r="A96" t="s">
         <v>48</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75">
+    <row r="97" spans="1:4" ht="15.75" hidden="1">
       <c r="A97" t="s">
         <v>48</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" hidden="1">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" hidden="1">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" hidden="1">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -3230,7 +3231,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" hidden="1">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -3244,7 +3245,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" hidden="1">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" hidden="1">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -3272,7 +3273,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" hidden="1">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" hidden="1">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" hidden="1">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" hidden="1">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" hidden="1">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" hidden="1">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" hidden="1">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" hidden="1">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" hidden="1">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" hidden="1">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -3412,7 +3413,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" hidden="1">
       <c r="A115" t="s">
         <v>108</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" hidden="1">
       <c r="A116" t="s">
         <v>108</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" hidden="1">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" hidden="1">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" hidden="1">
       <c r="A119" t="s">
         <v>108</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" hidden="1">
       <c r="A120" t="s">
         <v>108</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" hidden="1">
       <c r="A121" t="s">
         <v>108</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" hidden="1">
       <c r="A123" t="s">
         <v>108</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" hidden="1">
       <c r="A125" t="s">
         <v>108</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" hidden="1">
       <c r="A127" t="s">
         <v>108</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" hidden="1">
       <c r="A128" t="s">
         <v>108</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" hidden="1">
       <c r="A129" t="s">
         <v>108</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" hidden="1">
       <c r="A130" t="s">
         <v>108</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" hidden="1">
       <c r="A131" t="s">
         <v>108</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" hidden="1">
       <c r="A132" t="s">
         <v>108</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" hidden="1">
       <c r="A133" t="s">
         <v>108</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" hidden="1">
       <c r="A134" t="s">
         <v>108</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" hidden="1">
       <c r="A135" t="s">
         <v>108</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" hidden="1">
       <c r="A136" t="s">
         <v>108</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" hidden="1">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -3748,7 +3749,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" hidden="1">
       <c r="A139" t="s">
         <v>108</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" hidden="1">
       <c r="A140" t="s">
         <v>108</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" hidden="1">
       <c r="A141" t="s">
         <v>108</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" hidden="1">
       <c r="A142" t="s">
         <v>108</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" hidden="1">
       <c r="A143" t="s">
         <v>108</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" hidden="1">
       <c r="A144" t="s">
         <v>108</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" hidden="1">
       <c r="A145" t="s">
         <v>108</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" hidden="1">
       <c r="A146" t="s">
         <v>108</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" hidden="1">
       <c r="A147" t="s">
         <v>108</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" hidden="1">
       <c r="A148" t="s">
         <v>108</v>
       </c>
@@ -3888,7 +3889,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" hidden="1">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" hidden="1">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" hidden="1">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" hidden="1">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" hidden="1">
       <c r="A153" t="s">
         <v>162</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" hidden="1">
       <c r="A155" t="s">
         <v>162</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" hidden="1">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" hidden="1">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" hidden="1">
       <c r="A158" t="s">
         <v>162</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" hidden="1">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" hidden="1">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" hidden="1">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" hidden="1">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" hidden="1">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" hidden="1">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" hidden="1">
       <c r="A166" t="s">
         <v>162</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" hidden="1">
       <c r="A167" t="s">
         <v>162</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" hidden="1">
       <c r="A168" t="s">
         <v>162</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" hidden="1">
       <c r="A169" t="s">
         <v>162</v>
       </c>
@@ -4182,7 +4183,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" hidden="1">
       <c r="A170" t="s">
         <v>162</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" hidden="1">
       <c r="A171" t="s">
         <v>162</v>
       </c>
@@ -4210,7 +4211,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" hidden="1">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" hidden="1">
       <c r="A173" t="s">
         <v>162</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" hidden="1">
       <c r="A174" t="s">
         <v>162</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" hidden="1">
       <c r="A176" t="s">
         <v>162</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" hidden="1">
       <c r="A177" t="s">
         <v>162</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" hidden="1">
       <c r="A179" t="s">
         <v>162</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" hidden="1">
       <c r="A180" t="s">
         <v>162</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" hidden="1">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" hidden="1">
       <c r="A182" t="s">
         <v>162</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" hidden="1">
       <c r="A183" t="s">
         <v>162</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" hidden="1">
       <c r="A184" t="s">
         <v>162</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" hidden="1">
       <c r="A185" t="s">
         <v>162</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" hidden="1">
       <c r="A186" t="s">
         <v>162</v>
       </c>
@@ -4420,7 +4421,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" hidden="1">
       <c r="A187" t="s">
         <v>162</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" hidden="1">
       <c r="A188" t="s">
         <v>162</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" hidden="1">
       <c r="A189" t="s">
         <v>162</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" hidden="1">
       <c r="A190" t="s">
         <v>162</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" hidden="1">
       <c r="A191" t="s">
         <v>162</v>
       </c>
@@ -4490,7 +4491,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" hidden="1">
       <c r="A192" t="s">
         <v>162</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" hidden="1">
       <c r="A193" t="s">
         <v>162</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" hidden="1">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" hidden="1">
       <c r="A195" t="s">
         <v>213</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" hidden="1">
       <c r="A196" t="s">
         <v>213</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" hidden="1">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -4574,7 +4575,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" hidden="1">
       <c r="A198" t="s">
         <v>213</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" hidden="1">
       <c r="A199" t="s">
         <v>213</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" hidden="1">
       <c r="A200" t="s">
         <v>213</v>
       </c>
@@ -4630,7 +4631,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" hidden="1">
       <c r="A202" t="s">
         <v>213</v>
       </c>
@@ -4644,7 +4645,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" hidden="1">
       <c r="A203" t="s">
         <v>213</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" hidden="1">
       <c r="A204" t="s">
         <v>213</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" hidden="1">
       <c r="A205" t="s">
         <v>213</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" hidden="1">
       <c r="A206" t="s">
         <v>213</v>
       </c>
@@ -4700,35 +4701,29 @@
         <v>435</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
-        <v>213</v>
+    <row r="207" spans="1:4" hidden="1">
+      <c r="A207" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="B207" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C207" t="s">
-        <v>229</v>
-      </c>
-      <c r="D207" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>213</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" hidden="1">
+      <c r="A208" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="B208" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C208" t="s">
-        <v>230</v>
-      </c>
-      <c r="D208" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1">
       <c r="A209" t="s">
         <v>213</v>
       </c>
@@ -4736,13 +4731,13 @@
         <v>228</v>
       </c>
       <c r="C209" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D209" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" hidden="1">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -4750,13 +4745,13 @@
         <v>228</v>
       </c>
       <c r="C210" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D210" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" hidden="1">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -4764,13 +4759,13 @@
         <v>228</v>
       </c>
       <c r="C211" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D211" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" hidden="1">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -4778,13 +4773,13 @@
         <v>228</v>
       </c>
       <c r="C212" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D212" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" hidden="1">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -4792,13 +4787,13 @@
         <v>228</v>
       </c>
       <c r="C213" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D213" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" hidden="1">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4806,13 +4801,13 @@
         <v>228</v>
       </c>
       <c r="C214" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D214" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" hidden="1">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4820,13 +4815,13 @@
         <v>228</v>
       </c>
       <c r="C215" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D215" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" hidden="1">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -4834,13 +4829,13 @@
         <v>228</v>
       </c>
       <c r="C216" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D216" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" hidden="1">
       <c r="A217" t="s">
         <v>213</v>
       </c>
@@ -4848,7 +4843,7 @@
         <v>228</v>
       </c>
       <c r="C217" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D217" t="s">
         <v>435</v>
@@ -4862,13 +4857,13 @@
         <v>228</v>
       </c>
       <c r="C218" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D218" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1">
       <c r="A219" t="s">
         <v>213</v>
       </c>
@@ -4876,55 +4871,52 @@
         <v>228</v>
       </c>
       <c r="C219" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D219" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" hidden="1">
       <c r="A220" t="s">
         <v>213</v>
       </c>
       <c r="B220" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C220" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D220" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" hidden="1">
       <c r="A221" t="s">
         <v>213</v>
       </c>
       <c r="B221" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C221" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D221" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>213</v>
-      </c>
-      <c r="B222" t="s">
-        <v>242</v>
+    <row r="222" spans="1:4" hidden="1">
+      <c r="A222" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="C222" t="s">
-        <v>245</v>
-      </c>
-      <c r="D222" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" hidden="1">
       <c r="A223" t="s">
         <v>213</v>
       </c>
@@ -4932,13 +4924,13 @@
         <v>242</v>
       </c>
       <c r="C223" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D223" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" hidden="1">
       <c r="A224" t="s">
         <v>213</v>
       </c>
@@ -4946,13 +4938,13 @@
         <v>242</v>
       </c>
       <c r="C224" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D224" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" hidden="1">
       <c r="A225" t="s">
         <v>213</v>
       </c>
@@ -4960,13 +4952,13 @@
         <v>242</v>
       </c>
       <c r="C225" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D225" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" hidden="1">
       <c r="A226" t="s">
         <v>213</v>
       </c>
@@ -4974,13 +4966,13 @@
         <v>242</v>
       </c>
       <c r="C226" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D226" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" hidden="1">
       <c r="A227" t="s">
         <v>213</v>
       </c>
@@ -4988,27 +4980,27 @@
         <v>242</v>
       </c>
       <c r="C227" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D227" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15.75">
+    <row r="228" spans="1:4" hidden="1">
       <c r="A228" t="s">
         <v>213</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>432</v>
+      <c r="B228" t="s">
+        <v>242</v>
       </c>
       <c r="C228" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D228" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" hidden="1">
       <c r="A229" t="s">
         <v>213</v>
       </c>
@@ -5016,13 +5008,13 @@
         <v>242</v>
       </c>
       <c r="C229" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D229" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" hidden="1">
       <c r="A230" t="s">
         <v>213</v>
       </c>
@@ -5030,13 +5022,13 @@
         <v>242</v>
       </c>
       <c r="C230" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D230" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" hidden="1">
       <c r="A231" t="s">
         <v>213</v>
       </c>
@@ -5044,13 +5036,13 @@
         <v>242</v>
       </c>
       <c r="C231" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D231" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1">
       <c r="A232" t="s">
         <v>213</v>
       </c>
@@ -5058,7 +5050,7 @@
         <v>242</v>
       </c>
       <c r="C232" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D232" t="s">
         <v>435</v>
@@ -5069,30 +5061,30 @@
         <v>213</v>
       </c>
       <c r="B233" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C233" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D233" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1">
       <c r="A234" t="s">
         <v>213</v>
       </c>
       <c r="B234" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C234" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D234" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" hidden="1">
       <c r="A235" t="s">
         <v>213</v>
       </c>
@@ -5100,13 +5092,13 @@
         <v>256</v>
       </c>
       <c r="C235" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D235" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" hidden="1">
       <c r="A236" t="s">
         <v>213</v>
       </c>
@@ -5114,13 +5106,13 @@
         <v>256</v>
       </c>
       <c r="C236" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D236" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" hidden="1">
       <c r="A237" t="s">
         <v>213</v>
       </c>
@@ -5128,91 +5120,88 @@
         <v>256</v>
       </c>
       <c r="C237" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D237" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" hidden="1">
       <c r="A238" t="s">
         <v>213</v>
       </c>
       <c r="B238" t="s">
-        <v>431</v>
+        <v>256</v>
       </c>
       <c r="C238" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D238" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" hidden="1">
       <c r="A239" t="s">
         <v>213</v>
       </c>
       <c r="B239" t="s">
-        <v>431</v>
+        <v>256</v>
       </c>
       <c r="C239" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D239" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.75" hidden="1">
       <c r="A240" t="s">
         <v>213</v>
       </c>
-      <c r="B240" t="s">
-        <v>433</v>
+      <c r="B240" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="C240" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D240" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" hidden="1">
       <c r="A241" t="s">
         <v>213</v>
       </c>
       <c r="B241" t="s">
-        <v>431</v>
+        <v>256</v>
       </c>
       <c r="C241" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D241" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
-        <v>213</v>
+    <row r="242" spans="1:4" hidden="1">
+      <c r="A242" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="B242" t="s">
-        <v>431</v>
-      </c>
-      <c r="C242" t="s">
-        <v>266</v>
-      </c>
-      <c r="D242" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>256</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" hidden="1">
       <c r="A243" t="s">
         <v>213</v>
       </c>
       <c r="B243" t="s">
-        <v>256</v>
+        <v>431</v>
       </c>
       <c r="C243" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D243" t="s">
         <v>435</v>
@@ -5226,83 +5215,83 @@
         <v>431</v>
       </c>
       <c r="C244" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D244" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" hidden="1">
       <c r="A245" t="s">
         <v>213</v>
       </c>
       <c r="B245" t="s">
+        <v>433</v>
+      </c>
+      <c r="C245" t="s">
+        <v>264</v>
+      </c>
+      <c r="D245" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" hidden="1">
+      <c r="A246" t="s">
+        <v>213</v>
+      </c>
+      <c r="B246" t="s">
         <v>431</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C246" t="s">
+        <v>265</v>
+      </c>
+      <c r="D246" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" hidden="1">
+      <c r="A247" t="s">
+        <v>213</v>
+      </c>
+      <c r="B247" t="s">
+        <v>431</v>
+      </c>
+      <c r="C247" t="s">
+        <v>266</v>
+      </c>
+      <c r="D247" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1">
+      <c r="A248" t="s">
+        <v>213</v>
+      </c>
+      <c r="B248" t="s">
+        <v>431</v>
+      </c>
+      <c r="C248" t="s">
+        <v>268</v>
+      </c>
+      <c r="D248" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" hidden="1">
+      <c r="A249" t="s">
+        <v>213</v>
+      </c>
+      <c r="B249" t="s">
+        <v>431</v>
+      </c>
+      <c r="C249" t="s">
         <v>269</v>
       </c>
-      <c r="D245" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
-        <v>270</v>
-      </c>
-      <c r="B246" t="s">
-        <v>271</v>
-      </c>
-      <c r="C246" t="s">
-        <v>272</v>
-      </c>
-      <c r="D246" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
-        <v>270</v>
-      </c>
-      <c r="B247" t="s">
-        <v>271</v>
-      </c>
-      <c r="C247" t="s">
-        <v>273</v>
-      </c>
-      <c r="D247" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
-        <v>270</v>
-      </c>
-      <c r="B248" t="s">
-        <v>271</v>
-      </c>
-      <c r="C248" t="s">
-        <v>274</v>
-      </c>
-      <c r="D248" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
-        <v>270</v>
-      </c>
-      <c r="B249" t="s">
-        <v>271</v>
-      </c>
-      <c r="C249" t="s">
-        <v>275</v>
-      </c>
       <c r="D249" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" hidden="1">
       <c r="A250" t="s">
         <v>270</v>
       </c>
@@ -5310,13 +5299,13 @@
         <v>271</v>
       </c>
       <c r="C250" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D250" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" hidden="1">
       <c r="A251" t="s">
         <v>270</v>
       </c>
@@ -5324,13 +5313,13 @@
         <v>271</v>
       </c>
       <c r="C251" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D251" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" hidden="1">
       <c r="A252" t="s">
         <v>270</v>
       </c>
@@ -5338,13 +5327,13 @@
         <v>271</v>
       </c>
       <c r="C252" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D252" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" hidden="1">
       <c r="A253" t="s">
         <v>270</v>
       </c>
@@ -5352,13 +5341,13 @@
         <v>271</v>
       </c>
       <c r="C253" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D253" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" hidden="1">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -5366,13 +5355,13 @@
         <v>271</v>
       </c>
       <c r="C254" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D254" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" hidden="1">
       <c r="A255" t="s">
         <v>270</v>
       </c>
@@ -5380,7 +5369,7 @@
         <v>271</v>
       </c>
       <c r="C255" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D255" t="s">
         <v>435</v>
@@ -5391,69 +5380,66 @@
         <v>270</v>
       </c>
       <c r="B256" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C256" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D256" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" hidden="1">
       <c r="A257" t="s">
         <v>270</v>
       </c>
       <c r="B257" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C257" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D257" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" hidden="1">
       <c r="A258" t="s">
         <v>270</v>
       </c>
       <c r="B258" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C258" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D258" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" hidden="1">
       <c r="A259" t="s">
         <v>270</v>
       </c>
       <c r="B259" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C259" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D259" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
-        <v>270</v>
+    <row r="260" spans="1:4" hidden="1">
+      <c r="A260" s="5" t="s">
+        <v>451</v>
       </c>
       <c r="B260" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C260" t="s">
-        <v>287</v>
-      </c>
-      <c r="D260" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5464,13 +5450,13 @@
         <v>282</v>
       </c>
       <c r="C261" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D261" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" hidden="1">
       <c r="A262" t="s">
         <v>270</v>
       </c>
@@ -5478,13 +5464,13 @@
         <v>282</v>
       </c>
       <c r="C262" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D262" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" hidden="1">
       <c r="A263" t="s">
         <v>270</v>
       </c>
@@ -5492,13 +5478,13 @@
         <v>282</v>
       </c>
       <c r="C263" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D263" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" hidden="1">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -5506,13 +5492,13 @@
         <v>282</v>
       </c>
       <c r="C264" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D264" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" hidden="1">
       <c r="A265" t="s">
         <v>270</v>
       </c>
@@ -5520,13 +5506,13 @@
         <v>282</v>
       </c>
       <c r="C265" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D265" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" hidden="1">
       <c r="A266" t="s">
         <v>270</v>
       </c>
@@ -5534,13 +5520,13 @@
         <v>282</v>
       </c>
       <c r="C266" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D266" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" hidden="1">
       <c r="A267" t="s">
         <v>270</v>
       </c>
@@ -5548,13 +5534,13 @@
         <v>282</v>
       </c>
       <c r="C267" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D267" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" hidden="1">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -5562,13 +5548,13 @@
         <v>282</v>
       </c>
       <c r="C268" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D268" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" hidden="1">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -5576,83 +5562,83 @@
         <v>282</v>
       </c>
       <c r="C269" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D269" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" hidden="1">
       <c r="A270" t="s">
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C270" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D270" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" hidden="1">
       <c r="A271" t="s">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C271" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D271" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" hidden="1">
       <c r="A272" t="s">
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C272" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D272" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" hidden="1">
       <c r="A273" t="s">
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C273" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D273" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" hidden="1">
       <c r="A274" t="s">
         <v>270</v>
       </c>
       <c r="B274" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C274" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D274" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" hidden="1">
       <c r="A275" t="s">
         <v>270</v>
       </c>
@@ -5660,13 +5646,13 @@
         <v>297</v>
       </c>
       <c r="C275" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D275" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" hidden="1">
       <c r="A276" t="s">
         <v>270</v>
       </c>
@@ -5674,13 +5660,13 @@
         <v>297</v>
       </c>
       <c r="C276" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D276" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" hidden="1">
       <c r="A277" t="s">
         <v>270</v>
       </c>
@@ -5688,13 +5674,13 @@
         <v>297</v>
       </c>
       <c r="C277" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D277" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" hidden="1">
       <c r="A278" t="s">
         <v>270</v>
       </c>
@@ -5702,7 +5688,7 @@
         <v>297</v>
       </c>
       <c r="C278" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D278" t="s">
         <v>435</v>
@@ -5716,13 +5702,13 @@
         <v>297</v>
       </c>
       <c r="C279" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D279" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" hidden="1">
       <c r="A280" t="s">
         <v>270</v>
       </c>
@@ -5730,13 +5716,13 @@
         <v>297</v>
       </c>
       <c r="C280" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D280" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" hidden="1">
       <c r="A281" t="s">
         <v>270</v>
       </c>
@@ -5744,13 +5730,13 @@
         <v>297</v>
       </c>
       <c r="C281" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D281" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" hidden="1">
       <c r="A282" t="s">
         <v>270</v>
       </c>
@@ -5758,77 +5744,77 @@
         <v>297</v>
       </c>
       <c r="C282" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D282" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" hidden="1">
       <c r="A283" t="s">
         <v>270</v>
       </c>
       <c r="B283" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C283" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D283" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" hidden="1">
       <c r="A284" t="s">
         <v>270</v>
       </c>
       <c r="B284" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C284" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D284" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" hidden="1">
       <c r="A285" t="s">
         <v>270</v>
       </c>
       <c r="B285" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C285" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D285" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" hidden="1">
       <c r="A286" t="s">
         <v>270</v>
       </c>
       <c r="B286" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C286" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D286" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" hidden="1">
       <c r="A287" t="s">
         <v>270</v>
       </c>
       <c r="B287" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C287" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D287" t="s">
         <v>435</v>
@@ -5842,13 +5828,13 @@
         <v>311</v>
       </c>
       <c r="C288" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D288" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" hidden="1">
       <c r="A289" t="s">
         <v>270</v>
       </c>
@@ -5856,13 +5842,13 @@
         <v>311</v>
       </c>
       <c r="C289" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D289" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" hidden="1">
       <c r="A290" t="s">
         <v>270</v>
       </c>
@@ -5870,13 +5856,13 @@
         <v>311</v>
       </c>
       <c r="C290" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D290" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" hidden="1">
       <c r="A291" t="s">
         <v>270</v>
       </c>
@@ -5884,13 +5870,13 @@
         <v>311</v>
       </c>
       <c r="C291" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D291" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" hidden="1">
       <c r="A292" t="s">
         <v>270</v>
       </c>
@@ -5898,13 +5884,13 @@
         <v>311</v>
       </c>
       <c r="C292" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D292" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" hidden="1">
       <c r="A293" t="s">
         <v>270</v>
       </c>
@@ -5912,83 +5898,83 @@
         <v>311</v>
       </c>
       <c r="C293" t="s">
+        <v>317</v>
+      </c>
+      <c r="D293" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" hidden="1">
+      <c r="A294" t="s">
+        <v>270</v>
+      </c>
+      <c r="B294" t="s">
+        <v>311</v>
+      </c>
+      <c r="C294" t="s">
+        <v>318</v>
+      </c>
+      <c r="D294" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" hidden="1">
+      <c r="A295" t="s">
+        <v>270</v>
+      </c>
+      <c r="B295" t="s">
+        <v>311</v>
+      </c>
+      <c r="C295" t="s">
+        <v>319</v>
+      </c>
+      <c r="D295" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" hidden="1">
+      <c r="A296" t="s">
+        <v>270</v>
+      </c>
+      <c r="B296" t="s">
+        <v>311</v>
+      </c>
+      <c r="C296" t="s">
+        <v>320</v>
+      </c>
+      <c r="D296" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" hidden="1">
+      <c r="A297" t="s">
+        <v>270</v>
+      </c>
+      <c r="B297" t="s">
+        <v>311</v>
+      </c>
+      <c r="C297" t="s">
+        <v>321</v>
+      </c>
+      <c r="D297" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1">
+      <c r="A298" t="s">
+        <v>270</v>
+      </c>
+      <c r="B298" t="s">
+        <v>311</v>
+      </c>
+      <c r="C298" t="s">
         <v>322</v>
       </c>
-      <c r="D293" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" t="s">
-        <v>323</v>
-      </c>
-      <c r="B294" t="s">
-        <v>324</v>
-      </c>
-      <c r="C294" t="s">
-        <v>325</v>
-      </c>
-      <c r="D294" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" t="s">
-        <v>323</v>
-      </c>
-      <c r="B295" t="s">
-        <v>324</v>
-      </c>
-      <c r="C295" t="s">
-        <v>326</v>
-      </c>
-      <c r="D295" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" t="s">
-        <v>323</v>
-      </c>
-      <c r="B296" t="s">
-        <v>324</v>
-      </c>
-      <c r="C296" t="s">
-        <v>327</v>
-      </c>
-      <c r="D296" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" t="s">
-        <v>323</v>
-      </c>
-      <c r="B297" t="s">
-        <v>324</v>
-      </c>
-      <c r="C297" t="s">
-        <v>328</v>
-      </c>
-      <c r="D297" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" t="s">
-        <v>323</v>
-      </c>
-      <c r="B298" t="s">
-        <v>324</v>
-      </c>
-      <c r="C298" t="s">
-        <v>329</v>
-      </c>
       <c r="D298" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" hidden="1">
       <c r="A299" t="s">
         <v>323</v>
       </c>
@@ -5996,13 +5982,13 @@
         <v>324</v>
       </c>
       <c r="C299" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D299" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" hidden="1">
       <c r="A300" t="s">
         <v>323</v>
       </c>
@@ -6010,13 +5996,13 @@
         <v>324</v>
       </c>
       <c r="C300" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D300" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" hidden="1">
       <c r="A301" t="s">
         <v>323</v>
       </c>
@@ -6024,63 +6010,63 @@
         <v>324</v>
       </c>
       <c r="C301" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D301" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" hidden="1">
       <c r="A302" t="s">
         <v>323</v>
       </c>
       <c r="B302" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C302" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D302" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" hidden="1">
       <c r="A303" t="s">
         <v>323</v>
       </c>
       <c r="B303" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C303" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D303" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" hidden="1">
       <c r="A304" t="s">
         <v>323</v>
       </c>
       <c r="B304" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C304" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D304" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" hidden="1">
       <c r="A305" t="s">
         <v>323</v>
       </c>
       <c r="B305" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C305" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D305" t="s">
         <v>435</v>
@@ -6091,30 +6077,27 @@
         <v>323</v>
       </c>
       <c r="B306" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C306" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D306" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
-      <c r="A307" t="s">
-        <v>323</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" hidden="1">
+      <c r="A307" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="B307" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C307" t="s">
-        <v>339</v>
-      </c>
-      <c r="D307" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" hidden="1">
       <c r="A308" t="s">
         <v>323</v>
       </c>
@@ -6122,13 +6105,13 @@
         <v>333</v>
       </c>
       <c r="C308" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D308" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" hidden="1">
       <c r="A309" t="s">
         <v>323</v>
       </c>
@@ -6136,13 +6119,13 @@
         <v>333</v>
       </c>
       <c r="C309" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D309" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" hidden="1">
       <c r="A310" t="s">
         <v>323</v>
       </c>
@@ -6150,13 +6133,13 @@
         <v>333</v>
       </c>
       <c r="C310" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D310" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" hidden="1">
       <c r="A311" t="s">
         <v>323</v>
       </c>
@@ -6164,13 +6147,13 @@
         <v>333</v>
       </c>
       <c r="C311" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D311" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" hidden="1">
       <c r="A312" t="s">
         <v>323</v>
       </c>
@@ -6178,13 +6161,13 @@
         <v>333</v>
       </c>
       <c r="C312" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D312" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" hidden="1">
       <c r="A313" t="s">
         <v>323</v>
       </c>
@@ -6192,13 +6175,13 @@
         <v>333</v>
       </c>
       <c r="C313" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D313" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" hidden="1">
       <c r="A314" t="s">
         <v>323</v>
       </c>
@@ -6206,77 +6189,77 @@
         <v>333</v>
       </c>
       <c r="C314" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D314" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" hidden="1">
       <c r="A315" t="s">
         <v>323</v>
       </c>
       <c r="B315" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C315" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D315" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" hidden="1">
       <c r="A316" t="s">
         <v>323</v>
       </c>
       <c r="B316" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C316" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D316" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" hidden="1">
       <c r="A317" t="s">
         <v>323</v>
       </c>
       <c r="B317" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C317" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D317" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" hidden="1">
       <c r="A318" t="s">
         <v>323</v>
       </c>
       <c r="B318" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C318" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D318" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" hidden="1">
       <c r="A319" t="s">
         <v>323</v>
       </c>
       <c r="B319" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C319" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D319" t="s">
         <v>435</v>
@@ -6287,27 +6270,27 @@
         <v>323</v>
       </c>
       <c r="B320" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C320" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D320" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" t="s">
-        <v>323</v>
+      <c r="A321" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="B321" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C321" t="s">
-        <v>354</v>
+        <v>449</v>
       </c>
       <c r="D321" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6318,153 +6301,144 @@
         <v>347</v>
       </c>
       <c r="C322" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D322" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" hidden="1">
       <c r="A323" t="s">
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C323" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D323" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" hidden="1">
       <c r="A324" t="s">
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C324" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D324" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" hidden="1">
       <c r="A325" t="s">
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C325" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D325" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" hidden="1">
       <c r="A326" t="s">
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C326" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D326" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" hidden="1">
       <c r="A327" t="s">
         <v>323</v>
       </c>
       <c r="B327" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C327" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D327" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
-      <c r="A328" t="s">
-        <v>323</v>
-      </c>
-      <c r="B328" t="s">
-        <v>356</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" hidden="1">
+      <c r="A328" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="C328" t="s">
-        <v>362</v>
-      </c>
-      <c r="D328" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="A329" t="s">
-        <v>323</v>
-      </c>
-      <c r="B329" t="s">
-        <v>356</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" hidden="1">
+      <c r="A329" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="C329" t="s">
-        <v>363</v>
-      </c>
-      <c r="D329" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" t="s">
-        <v>323</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" hidden="1">
+      <c r="A330" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="B330" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C330" t="s">
-        <v>364</v>
-      </c>
-      <c r="D330" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" hidden="1">
       <c r="A331" t="s">
         <v>323</v>
       </c>
       <c r="B331" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C331" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D331" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" hidden="1">
       <c r="A332" t="s">
         <v>323</v>
       </c>
       <c r="B332" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C332" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D332" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" hidden="1">
       <c r="A333" t="s">
         <v>323</v>
       </c>
@@ -6472,13 +6446,13 @@
         <v>356</v>
       </c>
       <c r="C333" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D333" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" hidden="1">
       <c r="A334" t="s">
         <v>323</v>
       </c>
@@ -6486,13 +6460,13 @@
         <v>356</v>
       </c>
       <c r="C334" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D334" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" hidden="1">
       <c r="A335" t="s">
         <v>323</v>
       </c>
@@ -6500,13 +6474,13 @@
         <v>356</v>
       </c>
       <c r="C335" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D335" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" hidden="1">
       <c r="A336" t="s">
         <v>323</v>
       </c>
@@ -6514,7 +6488,7 @@
         <v>356</v>
       </c>
       <c r="C336" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D336" t="s">
         <v>435</v>
@@ -6522,159 +6496,156 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="B337" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C337" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D337" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1">
       <c r="A338" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="B338" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C338" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D338" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" hidden="1">
       <c r="A339" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="B339" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C339" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D339" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" hidden="1">
       <c r="A340" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="B340" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C340" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D340" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" hidden="1">
       <c r="A341" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="B341" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C341" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D341" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" hidden="1">
       <c r="A342" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="B342" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C342" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D342" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" hidden="1">
       <c r="A343" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="B343" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C343" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D343" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" hidden="1">
       <c r="A344" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="B344" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C344" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D344" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" hidden="1">
       <c r="A345" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="B345" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C345" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D345" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" hidden="1">
       <c r="A346" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="B346" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C346" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D346" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
-      <c r="A347" t="s">
-        <v>371</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" hidden="1">
+      <c r="A347" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="B347" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C347" t="s">
-        <v>383</v>
-      </c>
-      <c r="D347" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" hidden="1">
       <c r="A348" t="s">
         <v>371</v>
       </c>
@@ -6682,13 +6653,13 @@
         <v>372</v>
       </c>
       <c r="C348" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D348" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" hidden="1">
       <c r="A349" t="s">
         <v>371</v>
       </c>
@@ -6696,105 +6667,105 @@
         <v>372</v>
       </c>
       <c r="C349" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D349" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" hidden="1">
       <c r="A350" t="s">
         <v>371</v>
       </c>
       <c r="B350" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C350" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D350" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" hidden="1">
       <c r="A351" t="s">
         <v>371</v>
       </c>
       <c r="B351" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C351" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D351" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" hidden="1">
       <c r="A352" t="s">
         <v>371</v>
       </c>
       <c r="B352" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C352" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D352" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" hidden="1">
       <c r="A353" t="s">
         <v>371</v>
       </c>
       <c r="B353" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C353" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D353" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" hidden="1">
       <c r="A354" t="s">
         <v>371</v>
       </c>
       <c r="B354" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C354" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D354" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" hidden="1">
       <c r="A355" t="s">
         <v>371</v>
       </c>
       <c r="B355" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C355" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D355" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" hidden="1">
       <c r="A356" t="s">
         <v>371</v>
       </c>
       <c r="B356" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C356" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D356" t="s">
         <v>435</v>
@@ -6805,122 +6776,122 @@
         <v>371</v>
       </c>
       <c r="B357" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C357" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D357" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" hidden="1">
       <c r="A358" t="s">
         <v>371</v>
       </c>
       <c r="B358" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C358" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D358" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" hidden="1">
       <c r="A359" t="s">
         <v>371</v>
       </c>
       <c r="B359" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C359" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D359" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" hidden="1">
       <c r="A360" t="s">
         <v>371</v>
       </c>
       <c r="B360" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C360" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D360" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" hidden="1">
       <c r="A361" t="s">
         <v>371</v>
       </c>
       <c r="B361" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C361" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D361" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" hidden="1">
       <c r="A362" t="s">
         <v>371</v>
       </c>
       <c r="B362" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C362" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D362" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" hidden="1">
       <c r="A363" t="s">
         <v>371</v>
       </c>
       <c r="B363" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C363" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D363" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" hidden="1">
       <c r="A364" t="s">
         <v>371</v>
       </c>
       <c r="B364" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C364" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D364" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" hidden="1">
       <c r="A365" t="s">
         <v>371</v>
       </c>
       <c r="B365" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C365" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D365" t="s">
         <v>435</v>
@@ -6931,86 +6902,86 @@
         <v>371</v>
       </c>
       <c r="B366" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C366" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D366" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" hidden="1">
       <c r="A367" t="s">
         <v>371</v>
       </c>
       <c r="B367" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C367" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D367" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" hidden="1">
       <c r="A368" t="s">
         <v>371</v>
       </c>
       <c r="B368" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C368" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D368" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" hidden="1">
       <c r="A369" t="s">
         <v>371</v>
       </c>
       <c r="B369" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C369" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D369" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" hidden="1">
       <c r="A370" t="s">
         <v>371</v>
       </c>
       <c r="B370" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C370" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D370" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" hidden="1">
       <c r="A371" t="s">
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C371" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D371" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" hidden="1">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -7018,7 +6989,7 @@
         <v>398</v>
       </c>
       <c r="C372" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D372" t="s">
         <v>435</v>
@@ -7032,13 +7003,13 @@
         <v>398</v>
       </c>
       <c r="C373" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D373" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" hidden="1">
       <c r="A374" t="s">
         <v>371</v>
       </c>
@@ -7046,161 +7017,161 @@
         <v>398</v>
       </c>
       <c r="C374" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="D374" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" hidden="1">
       <c r="A375" t="s">
         <v>371</v>
       </c>
       <c r="B375" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C375" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D375" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" hidden="1">
       <c r="A376" t="s">
         <v>371</v>
       </c>
       <c r="B376" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C376" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D376" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" hidden="1">
       <c r="A377" t="s">
         <v>371</v>
       </c>
       <c r="B377" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C377" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D377" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" hidden="1">
       <c r="A378" t="s">
         <v>371</v>
       </c>
       <c r="B378" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C378" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D378" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" hidden="1">
       <c r="A379" t="s">
         <v>371</v>
       </c>
       <c r="B379" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C379" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D379" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" hidden="1">
       <c r="A380" t="s">
         <v>371</v>
       </c>
       <c r="B380" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C380" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D380" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" hidden="1">
       <c r="A381" t="s">
         <v>371</v>
       </c>
       <c r="B381" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C381" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D381" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" hidden="1">
       <c r="A382" t="s">
         <v>371</v>
       </c>
       <c r="B382" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C382" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="D382" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" hidden="1">
       <c r="A383" t="s">
         <v>371</v>
       </c>
       <c r="B383" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C383" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D383" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" hidden="1">
       <c r="A384" t="s">
         <v>371</v>
       </c>
       <c r="B384" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C384" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D384" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" hidden="1">
       <c r="A385" t="s">
         <v>371</v>
       </c>
       <c r="B385" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C385" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D385" t="s">
         <v>435</v>
@@ -7214,138 +7185,174 @@
         <v>413</v>
       </c>
       <c r="C386" t="s">
+        <v>414</v>
+      </c>
+      <c r="D386" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" hidden="1">
+      <c r="A387" t="s">
+        <v>371</v>
+      </c>
+      <c r="B387" t="s">
+        <v>413</v>
+      </c>
+      <c r="C387" t="s">
+        <v>415</v>
+      </c>
+      <c r="D387" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" hidden="1">
+      <c r="A388" t="s">
+        <v>371</v>
+      </c>
+      <c r="B388" t="s">
+        <v>413</v>
+      </c>
+      <c r="C388" t="s">
+        <v>416</v>
+      </c>
+      <c r="D388" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1">
+      <c r="A389" t="s">
+        <v>371</v>
+      </c>
+      <c r="B389" t="s">
+        <v>413</v>
+      </c>
+      <c r="C389" t="s">
+        <v>417</v>
+      </c>
+      <c r="D389" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" hidden="1">
+      <c r="A390" t="s">
+        <v>371</v>
+      </c>
+      <c r="B390" t="s">
+        <v>413</v>
+      </c>
+      <c r="C390" t="s">
+        <v>418</v>
+      </c>
+      <c r="D390" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1">
+      <c r="A391" t="s">
+        <v>371</v>
+      </c>
+      <c r="B391" t="s">
+        <v>413</v>
+      </c>
+      <c r="C391" t="s">
+        <v>419</v>
+      </c>
+      <c r="D391" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" hidden="1">
+      <c r="A392" t="s">
+        <v>371</v>
+      </c>
+      <c r="B392" t="s">
+        <v>413</v>
+      </c>
+      <c r="C392" t="s">
+        <v>420</v>
+      </c>
+      <c r="D392" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" hidden="1">
+      <c r="A393" t="s">
+        <v>371</v>
+      </c>
+      <c r="B393" t="s">
+        <v>413</v>
+      </c>
+      <c r="C393" t="s">
+        <v>421</v>
+      </c>
+      <c r="D393" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" hidden="1">
+      <c r="A394" t="s">
+        <v>371</v>
+      </c>
+      <c r="B394" t="s">
+        <v>413</v>
+      </c>
+      <c r="C394" t="s">
+        <v>422</v>
+      </c>
+      <c r="D394" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" hidden="1">
+      <c r="A395" t="s">
+        <v>371</v>
+      </c>
+      <c r="B395" t="s">
+        <v>413</v>
+      </c>
+      <c r="C395" t="s">
+        <v>423</v>
+      </c>
+      <c r="D395" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" hidden="1">
+      <c r="A396" t="s">
+        <v>371</v>
+      </c>
+      <c r="B396" t="s">
+        <v>413</v>
+      </c>
+      <c r="C396" t="s">
+        <v>424</v>
+      </c>
+      <c r="D396" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" hidden="1">
+      <c r="A397" t="s">
+        <v>371</v>
+      </c>
+      <c r="B397" t="s">
+        <v>413</v>
+      </c>
+      <c r="C397" t="s">
         <v>425</v>
       </c>
-      <c r="D386" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B387" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C387" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B388" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C388" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C389" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B390" t="s">
-        <v>324</v>
-      </c>
-      <c r="C390" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B391" t="s">
-        <v>214</v>
-      </c>
-      <c r="C391" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B392" t="s">
-        <v>214</v>
-      </c>
-      <c r="C392" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B393" t="s">
-        <v>271</v>
-      </c>
-      <c r="C393" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B394" t="s">
-        <v>347</v>
-      </c>
-      <c r="C394" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B395" t="s">
-        <v>333</v>
-      </c>
-      <c r="C395" t="s">
-        <v>449</v>
-      </c>
-      <c r="D395" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B396" t="s">
-        <v>356</v>
-      </c>
-      <c r="C396" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B397" t="s">
-        <v>256</v>
-      </c>
-      <c r="C397" s="6" t="s">
-        <v>452</v>
+      <c r="D397" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D397" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D397" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/data/raw/FORESTRYdata/2024/林業署獼猴調查樣區列表.xlsx
+++ b/data/raw/FORESTRYdata/2024/林業署獼猴調查樣區列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\data\raw\FORESTRYdata\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21B72B2-A7DE-4FEA-9C6A-7D31FB5C8697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC2D08-418D-44C2-832A-9605E94EA758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12840" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$397</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$396</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="451">
   <si>
     <t>宜蘭</t>
   </si>
@@ -1356,13 +1356,6 @@
     <t>Bird</t>
   </si>
   <si>
-    <t>MC-E20-14</t>
-  </si>
-  <si>
-    <t>阿里山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘉義</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1407,14 +1400,14 @@
   </si>
   <si>
     <t>MA-E22-14</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1452,13 +1445,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft JhengHei"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1491,13 +1477,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1808,11 +1793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D397"/>
+  <dimension ref="A1:D396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D400" sqref="D400"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1831,7 +1815,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +1829,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1873,7 +1857,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1871,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1901,7 +1885,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1899,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1913,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1927,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +1941,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +1955,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +1969,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +1983,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2013,7 +1997,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2025,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2039,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2053,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2081,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2095,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2125,7 +2109,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2123,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2137,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2151,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +2165,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2179,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2193,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2223,7 +2207,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2221,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2235,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2263,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2293,7 +2277,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2291,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +2305,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2319,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2333,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2377,7 +2361,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2391,7 +2375,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +2389,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -2419,7 +2403,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2433,7 +2417,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2447,7 +2431,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2461,7 +2445,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2475,7 +2459,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2489,7 +2473,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2503,7 +2487,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2517,7 +2501,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2545,7 +2529,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -2559,7 +2543,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -2573,7 +2557,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -2587,7 +2571,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -2601,7 +2585,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -2615,7 +2599,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -2629,7 +2613,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -2643,7 +2627,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -2657,7 +2641,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2671,7 +2655,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -2699,7 +2683,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -2713,7 +2697,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -2727,7 +2711,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -2741,7 +2725,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -2755,7 +2739,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -2769,7 +2753,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>48</v>
       </c>
@@ -2783,7 +2767,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>48</v>
       </c>
@@ -2797,7 +2781,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -2811,7 +2795,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>48</v>
       </c>
@@ -2825,7 +2809,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -2839,7 +2823,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>48</v>
       </c>
@@ -2853,7 +2837,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -2867,7 +2851,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>48</v>
       </c>
@@ -2881,7 +2865,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>48</v>
       </c>
@@ -2895,7 +2879,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>48</v>
       </c>
@@ -2909,7 +2893,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -2923,7 +2907,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -2937,7 +2921,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -2951,7 +2935,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -2979,7 +2963,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>48</v>
       </c>
@@ -3007,7 +2991,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>48</v>
       </c>
@@ -3021,7 +3005,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>48</v>
       </c>
@@ -3035,7 +3019,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>48</v>
       </c>
@@ -3049,7 +3033,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -3063,7 +3047,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>48</v>
       </c>
@@ -3077,7 +3061,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" hidden="1">
+    <row r="91" spans="1:4" ht="15.75">
       <c r="A91" t="s">
         <v>48</v>
       </c>
@@ -3091,7 +3075,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" hidden="1">
+    <row r="92" spans="1:4" ht="15.75">
       <c r="A92" t="s">
         <v>48</v>
       </c>
@@ -3105,7 +3089,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" hidden="1">
+    <row r="93" spans="1:4" ht="15.75">
       <c r="A93" t="s">
         <v>48</v>
       </c>
@@ -3119,7 +3103,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" hidden="1">
+    <row r="94" spans="1:4" ht="15.75">
       <c r="A94" t="s">
         <v>48</v>
       </c>
@@ -3147,7 +3131,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" hidden="1">
+    <row r="96" spans="1:4" ht="15.75">
       <c r="A96" t="s">
         <v>48</v>
       </c>
@@ -3161,7 +3145,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" hidden="1">
+    <row r="97" spans="1:4" ht="15.75">
       <c r="A97" t="s">
         <v>48</v>
       </c>
@@ -3175,7 +3159,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -3189,7 +3173,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -3203,7 +3187,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -3231,7 +3215,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -3245,7 +3229,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -3259,7 +3243,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -3273,7 +3257,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -3287,7 +3271,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3301,7 +3285,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -3315,7 +3299,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -3329,7 +3313,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3343,7 +3327,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3357,7 +3341,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -3371,7 +3355,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>108</v>
       </c>
@@ -3385,7 +3369,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -3399,7 +3383,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -3413,7 +3397,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>108</v>
       </c>
@@ -3427,7 +3411,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>108</v>
       </c>
@@ -3441,7 +3425,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -3455,7 +3439,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>108</v>
       </c>
@@ -3469,7 +3453,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>108</v>
       </c>
@@ -3483,7 +3467,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>108</v>
       </c>
@@ -3497,7 +3481,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>108</v>
       </c>
@@ -3525,7 +3509,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>108</v>
       </c>
@@ -3553,7 +3537,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>108</v>
       </c>
@@ -3581,7 +3565,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>108</v>
       </c>
@@ -3595,7 +3579,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>108</v>
       </c>
@@ -3609,7 +3593,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>108</v>
       </c>
@@ -3623,7 +3607,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>108</v>
       </c>
@@ -3637,7 +3621,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>108</v>
       </c>
@@ -3651,7 +3635,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>108</v>
       </c>
@@ -3665,7 +3649,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>108</v>
       </c>
@@ -3679,7 +3663,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>108</v>
       </c>
@@ -3693,7 +3677,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>108</v>
       </c>
@@ -3707,7 +3691,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>108</v>
       </c>
@@ -3721,7 +3705,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -3749,7 +3733,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>108</v>
       </c>
@@ -3763,7 +3747,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>108</v>
       </c>
@@ -3777,7 +3761,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>108</v>
       </c>
@@ -3791,7 +3775,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>108</v>
       </c>
@@ -3805,7 +3789,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>108</v>
       </c>
@@ -3819,7 +3803,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>108</v>
       </c>
@@ -3833,7 +3817,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>108</v>
       </c>
@@ -3847,7 +3831,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>108</v>
       </c>
@@ -3861,7 +3845,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>108</v>
       </c>
@@ -3875,7 +3859,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>108</v>
       </c>
@@ -3889,7 +3873,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -3903,7 +3887,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -3917,7 +3901,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>162</v>
       </c>
@@ -3931,7 +3915,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>162</v>
       </c>
@@ -3945,7 +3929,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>162</v>
       </c>
@@ -3973,7 +3957,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>162</v>
       </c>
@@ -3987,7 +3971,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -4001,7 +3985,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>162</v>
       </c>
@@ -4015,7 +3999,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>162</v>
       </c>
@@ -4029,7 +4013,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -4043,7 +4027,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -4057,7 +4041,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>162</v>
       </c>
@@ -4071,7 +4055,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -4085,7 +4069,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4113,7 +4097,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -4127,7 +4111,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>162</v>
       </c>
@@ -4141,7 +4125,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>162</v>
       </c>
@@ -4155,7 +4139,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>162</v>
       </c>
@@ -4169,7 +4153,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>162</v>
       </c>
@@ -4183,7 +4167,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>162</v>
       </c>
@@ -4197,7 +4181,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>162</v>
       </c>
@@ -4211,7 +4195,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>162</v>
       </c>
@@ -4225,7 +4209,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>162</v>
       </c>
@@ -4239,7 +4223,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>162</v>
       </c>
@@ -4267,7 +4251,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>162</v>
       </c>
@@ -4281,7 +4265,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>162</v>
       </c>
@@ -4309,7 +4293,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>162</v>
       </c>
@@ -4323,7 +4307,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>162</v>
       </c>
@@ -4337,7 +4321,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>162</v>
       </c>
@@ -4351,7 +4335,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>162</v>
       </c>
@@ -4365,7 +4349,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>162</v>
       </c>
@@ -4379,7 +4363,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>162</v>
       </c>
@@ -4393,7 +4377,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>162</v>
       </c>
@@ -4407,7 +4391,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>162</v>
       </c>
@@ -4421,7 +4405,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>162</v>
       </c>
@@ -4435,7 +4419,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>162</v>
       </c>
@@ -4449,7 +4433,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>162</v>
       </c>
@@ -4463,7 +4447,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>162</v>
       </c>
@@ -4477,7 +4461,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>162</v>
       </c>
@@ -4491,7 +4475,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>162</v>
       </c>
@@ -4505,7 +4489,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>162</v>
       </c>
@@ -4519,7 +4503,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>213</v>
       </c>
@@ -4533,7 +4517,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>213</v>
       </c>
@@ -4547,7 +4531,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>213</v>
       </c>
@@ -4561,7 +4545,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -4575,7 +4559,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>213</v>
       </c>
@@ -4589,7 +4573,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>213</v>
       </c>
@@ -4603,7 +4587,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>213</v>
       </c>
@@ -4631,7 +4615,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>213</v>
       </c>
@@ -4645,7 +4629,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>213</v>
       </c>
@@ -4659,7 +4643,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>213</v>
       </c>
@@ -4673,7 +4657,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>213</v>
       </c>
@@ -4687,7 +4671,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>213</v>
       </c>
@@ -4701,29 +4685,29 @@
         <v>435</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1">
-      <c r="A207" s="5" t="s">
-        <v>439</v>
+    <row r="207" spans="1:4">
+      <c r="A207" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="B207" t="s">
         <v>214</v>
       </c>
       <c r="C207" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" hidden="1">
-      <c r="A208" s="5" t="s">
-        <v>439</v>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="B208" t="s">
         <v>214</v>
       </c>
       <c r="C208" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" hidden="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>213</v>
       </c>
@@ -4737,7 +4721,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -4751,7 +4735,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -4765,7 +4749,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>213</v>
       </c>
@@ -4779,7 +4763,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -4793,7 +4777,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4807,7 +4791,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4821,7 +4805,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -4835,7 +4819,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>213</v>
       </c>
@@ -4863,7 +4847,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>213</v>
       </c>
@@ -4877,7 +4861,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>213</v>
       </c>
@@ -4891,7 +4875,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>213</v>
       </c>
@@ -4905,18 +4889,21 @@
         <v>435</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1">
-      <c r="A222" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>438</v>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>213</v>
+      </c>
+      <c r="B222" t="s">
+        <v>242</v>
       </c>
       <c r="C222" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" hidden="1">
+        <v>243</v>
+      </c>
+      <c r="D222" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>213</v>
       </c>
@@ -4924,13 +4911,13 @@
         <v>242</v>
       </c>
       <c r="C223" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D223" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>213</v>
       </c>
@@ -4938,13 +4925,13 @@
         <v>242</v>
       </c>
       <c r="C224" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D224" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>213</v>
       </c>
@@ -4952,13 +4939,13 @@
         <v>242</v>
       </c>
       <c r="C225" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D225" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>213</v>
       </c>
@@ -4966,13 +4953,13 @@
         <v>242</v>
       </c>
       <c r="C226" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D226" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>213</v>
       </c>
@@ -4980,13 +4967,13 @@
         <v>242</v>
       </c>
       <c r="C227" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D227" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>213</v>
       </c>
@@ -4994,13 +4981,13 @@
         <v>242</v>
       </c>
       <c r="C228" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D228" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>213</v>
       </c>
@@ -5008,13 +4995,13 @@
         <v>242</v>
       </c>
       <c r="C229" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D229" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>213</v>
       </c>
@@ -5022,13 +5009,13 @@
         <v>242</v>
       </c>
       <c r="C230" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D230" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>213</v>
       </c>
@@ -5036,13 +5023,13 @@
         <v>242</v>
       </c>
       <c r="C231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D231" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>213</v>
       </c>
@@ -5050,10 +5037,10 @@
         <v>242</v>
       </c>
       <c r="C232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D232" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5064,27 +5051,27 @@
         <v>242</v>
       </c>
       <c r="C233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D233" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>213</v>
       </c>
       <c r="B234" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C234" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D234" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>213</v>
       </c>
@@ -5092,13 +5079,13 @@
         <v>256</v>
       </c>
       <c r="C235" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D235" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>213</v>
       </c>
@@ -5106,13 +5093,13 @@
         <v>256</v>
       </c>
       <c r="C236" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D236" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>213</v>
       </c>
@@ -5120,13 +5107,13 @@
         <v>256</v>
       </c>
       <c r="C237" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D237" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>213</v>
       </c>
@@ -5134,66 +5121,66 @@
         <v>256</v>
       </c>
       <c r="C238" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D238" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1">
+    <row r="239" spans="1:4" ht="15.75">
       <c r="A239" t="s">
         <v>213</v>
       </c>
-      <c r="B239" t="s">
-        <v>256</v>
+      <c r="B239" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="C239" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D239" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15.75" hidden="1">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>213</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>432</v>
+      <c r="B240" t="s">
+        <v>256</v>
       </c>
       <c r="C240" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D240" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1">
-      <c r="A241" t="s">
-        <v>213</v>
+    <row r="241" spans="1:4">
+      <c r="A241" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="B241" t="s">
         <v>256</v>
       </c>
-      <c r="C241" t="s">
-        <v>267</v>
-      </c>
-      <c r="D241" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" hidden="1">
-      <c r="A242" s="5" t="s">
-        <v>439</v>
+      <c r="C241" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>213</v>
       </c>
       <c r="B242" t="s">
-        <v>256</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" hidden="1">
+        <v>431</v>
+      </c>
+      <c r="C242" t="s">
+        <v>262</v>
+      </c>
+      <c r="D242" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>213</v>
       </c>
@@ -5201,10 +5188,10 @@
         <v>431</v>
       </c>
       <c r="C243" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D243" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5212,30 +5199,30 @@
         <v>213</v>
       </c>
       <c r="B244" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C244" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D244" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>213</v>
       </c>
       <c r="B245" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C245" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D245" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>213</v>
       </c>
@@ -5243,13 +5230,13 @@
         <v>431</v>
       </c>
       <c r="C246" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D246" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>213</v>
       </c>
@@ -5257,13 +5244,13 @@
         <v>431</v>
       </c>
       <c r="C247" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D247" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>213</v>
       </c>
@@ -5271,27 +5258,27 @@
         <v>431</v>
       </c>
       <c r="C248" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D248" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="B249" t="s">
-        <v>431</v>
+        <v>271</v>
       </c>
       <c r="C249" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D249" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>270</v>
       </c>
@@ -5299,13 +5286,13 @@
         <v>271</v>
       </c>
       <c r="C250" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D250" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>270</v>
       </c>
@@ -5313,13 +5300,13 @@
         <v>271</v>
       </c>
       <c r="C251" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D251" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>270</v>
       </c>
@@ -5327,13 +5314,13 @@
         <v>271</v>
       </c>
       <c r="C252" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D252" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>270</v>
       </c>
@@ -5341,13 +5328,13 @@
         <v>271</v>
       </c>
       <c r="C253" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D253" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -5355,13 +5342,13 @@
         <v>271</v>
       </c>
       <c r="C254" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D254" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>270</v>
       </c>
@@ -5369,10 +5356,10 @@
         <v>271</v>
       </c>
       <c r="C255" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D255" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5383,13 +5370,13 @@
         <v>271</v>
       </c>
       <c r="C256" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D256" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>270</v>
       </c>
@@ -5397,13 +5384,13 @@
         <v>271</v>
       </c>
       <c r="C257" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D257" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>270</v>
       </c>
@@ -5411,35 +5398,35 @@
         <v>271</v>
       </c>
       <c r="C258" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D258" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1">
-      <c r="A259" t="s">
-        <v>270</v>
+    <row r="259" spans="1:4">
+      <c r="A259" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="B259" t="s">
         <v>271</v>
       </c>
       <c r="C259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D259" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" hidden="1">
-      <c r="A260" s="5" t="s">
-        <v>451</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>270</v>
       </c>
       <c r="B260" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C260" t="s">
-        <v>447</v>
+        <v>283</v>
+      </c>
+      <c r="D260" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5450,13 +5437,13 @@
         <v>282</v>
       </c>
       <c r="C261" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D261" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>270</v>
       </c>
@@ -5464,13 +5451,13 @@
         <v>282</v>
       </c>
       <c r="C262" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D262" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>270</v>
       </c>
@@ -5478,13 +5465,13 @@
         <v>282</v>
       </c>
       <c r="C263" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D263" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -5492,13 +5479,13 @@
         <v>282</v>
       </c>
       <c r="C264" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D264" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>270</v>
       </c>
@@ -5506,13 +5493,13 @@
         <v>282</v>
       </c>
       <c r="C265" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D265" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>270</v>
       </c>
@@ -5520,13 +5507,13 @@
         <v>282</v>
       </c>
       <c r="C266" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D266" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>270</v>
       </c>
@@ -5534,13 +5521,13 @@
         <v>282</v>
       </c>
       <c r="C267" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D267" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -5548,13 +5535,13 @@
         <v>282</v>
       </c>
       <c r="C268" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D268" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -5562,13 +5549,13 @@
         <v>282</v>
       </c>
       <c r="C269" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D269" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -5576,13 +5563,13 @@
         <v>282</v>
       </c>
       <c r="C270" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D270" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5590,13 +5577,13 @@
         <v>282</v>
       </c>
       <c r="C271" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D271" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -5604,13 +5591,13 @@
         <v>282</v>
       </c>
       <c r="C272" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D272" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>270</v>
       </c>
@@ -5618,27 +5605,27 @@
         <v>282</v>
       </c>
       <c r="C273" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D273" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>270</v>
       </c>
       <c r="B274" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C274" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D274" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>270</v>
       </c>
@@ -5646,13 +5633,13 @@
         <v>297</v>
       </c>
       <c r="C275" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D275" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>270</v>
       </c>
@@ -5660,13 +5647,13 @@
         <v>297</v>
       </c>
       <c r="C276" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D276" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>270</v>
       </c>
@@ -5674,13 +5661,13 @@
         <v>297</v>
       </c>
       <c r="C277" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D277" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>270</v>
       </c>
@@ -5688,10 +5675,10 @@
         <v>297</v>
       </c>
       <c r="C278" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D278" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5702,13 +5689,13 @@
         <v>297</v>
       </c>
       <c r="C279" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D279" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>270</v>
       </c>
@@ -5716,13 +5703,13 @@
         <v>297</v>
       </c>
       <c r="C280" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D280" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>270</v>
       </c>
@@ -5730,13 +5717,13 @@
         <v>297</v>
       </c>
       <c r="C281" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D281" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>270</v>
       </c>
@@ -5744,13 +5731,13 @@
         <v>297</v>
       </c>
       <c r="C282" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D282" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>270</v>
       </c>
@@ -5758,13 +5745,13 @@
         <v>297</v>
       </c>
       <c r="C283" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D283" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>270</v>
       </c>
@@ -5772,13 +5759,13 @@
         <v>297</v>
       </c>
       <c r="C284" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D284" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>270</v>
       </c>
@@ -5786,13 +5773,13 @@
         <v>297</v>
       </c>
       <c r="C285" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D285" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>270</v>
       </c>
@@ -5800,24 +5787,24 @@
         <v>297</v>
       </c>
       <c r="C286" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D286" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>270</v>
       </c>
       <c r="B287" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C287" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D287" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5828,13 +5815,13 @@
         <v>311</v>
       </c>
       <c r="C288" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D288" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>270</v>
       </c>
@@ -5842,13 +5829,13 @@
         <v>311</v>
       </c>
       <c r="C289" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D289" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>270</v>
       </c>
@@ -5856,13 +5843,13 @@
         <v>311</v>
       </c>
       <c r="C290" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D290" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>270</v>
       </c>
@@ -5870,13 +5857,13 @@
         <v>311</v>
       </c>
       <c r="C291" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D291" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>270</v>
       </c>
@@ -5884,13 +5871,13 @@
         <v>311</v>
       </c>
       <c r="C292" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D292" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>270</v>
       </c>
@@ -5898,13 +5885,13 @@
         <v>311</v>
       </c>
       <c r="C293" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D293" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>270</v>
       </c>
@@ -5912,13 +5899,13 @@
         <v>311</v>
       </c>
       <c r="C294" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D294" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>270</v>
       </c>
@@ -5926,13 +5913,13 @@
         <v>311</v>
       </c>
       <c r="C295" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D295" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>270</v>
       </c>
@@ -5940,13 +5927,13 @@
         <v>311</v>
       </c>
       <c r="C296" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D296" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>270</v>
       </c>
@@ -5954,27 +5941,27 @@
         <v>311</v>
       </c>
       <c r="C297" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D297" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="B298" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C298" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D298" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>323</v>
       </c>
@@ -5982,13 +5969,13 @@
         <v>324</v>
       </c>
       <c r="C299" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D299" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>323</v>
       </c>
@@ -5996,13 +5983,13 @@
         <v>324</v>
       </c>
       <c r="C300" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D300" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>323</v>
       </c>
@@ -6010,13 +5997,13 @@
         <v>324</v>
       </c>
       <c r="C301" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D301" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>323</v>
       </c>
@@ -6024,13 +6011,13 @@
         <v>324</v>
       </c>
       <c r="C302" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D302" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>323</v>
       </c>
@@ -6038,13 +6025,13 @@
         <v>324</v>
       </c>
       <c r="C303" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D303" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>323</v>
       </c>
@@ -6052,13 +6039,13 @@
         <v>324</v>
       </c>
       <c r="C304" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D304" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -6066,38 +6053,38 @@
         <v>324</v>
       </c>
       <c r="C305" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D305" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" t="s">
-        <v>323</v>
+      <c r="A306" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="B306" t="s">
         <v>324</v>
       </c>
       <c r="C306" t="s">
-        <v>332</v>
-      </c>
-      <c r="D306" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" hidden="1">
-      <c r="A307" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>323</v>
       </c>
       <c r="B307" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C307" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" hidden="1">
+        <v>334</v>
+      </c>
+      <c r="D307" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>323</v>
       </c>
@@ -6105,13 +6092,13 @@
         <v>333</v>
       </c>
       <c r="C308" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D308" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>323</v>
       </c>
@@ -6119,13 +6106,13 @@
         <v>333</v>
       </c>
       <c r="C309" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D309" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>323</v>
       </c>
@@ -6133,13 +6120,13 @@
         <v>333</v>
       </c>
       <c r="C310" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D310" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>323</v>
       </c>
@@ -6147,13 +6134,13 @@
         <v>333</v>
       </c>
       <c r="C311" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D311" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>323</v>
       </c>
@@ -6161,13 +6148,13 @@
         <v>333</v>
       </c>
       <c r="C312" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D312" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>323</v>
       </c>
@@ -6175,13 +6162,13 @@
         <v>333</v>
       </c>
       <c r="C313" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D313" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>323</v>
       </c>
@@ -6189,13 +6176,13 @@
         <v>333</v>
       </c>
       <c r="C314" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D314" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>323</v>
       </c>
@@ -6203,13 +6190,13 @@
         <v>333</v>
       </c>
       <c r="C315" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D315" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>323</v>
       </c>
@@ -6217,13 +6204,13 @@
         <v>333</v>
       </c>
       <c r="C316" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D316" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -6231,13 +6218,13 @@
         <v>333</v>
       </c>
       <c r="C317" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D317" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>323</v>
       </c>
@@ -6245,13 +6232,13 @@
         <v>333</v>
       </c>
       <c r="C318" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D318" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>323</v>
       </c>
@@ -6259,35 +6246,35 @@
         <v>333</v>
       </c>
       <c r="C319" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D319" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="320" spans="1:4">
-      <c r="A320" t="s">
-        <v>323</v>
+      <c r="A320" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="B320" t="s">
         <v>333</v>
       </c>
       <c r="C320" t="s">
-        <v>346</v>
+        <v>447</v>
       </c>
       <c r="D320" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="321" spans="1:4">
-      <c r="A321" s="4" t="s">
-        <v>440</v>
+      <c r="A321" t="s">
+        <v>323</v>
       </c>
       <c r="B321" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C321" t="s">
-        <v>449</v>
+        <v>348</v>
       </c>
       <c r="D321" t="s">
         <v>436</v>
@@ -6301,13 +6288,13 @@
         <v>347</v>
       </c>
       <c r="C322" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D322" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -6315,13 +6302,13 @@
         <v>347</v>
       </c>
       <c r="C323" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D323" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -6329,13 +6316,13 @@
         <v>347</v>
       </c>
       <c r="C324" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D324" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>323</v>
       </c>
@@ -6343,13 +6330,13 @@
         <v>347</v>
       </c>
       <c r="C325" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D325" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>323</v>
       </c>
@@ -6357,60 +6344,60 @@
         <v>347</v>
       </c>
       <c r="C326" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D326" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1">
-      <c r="A327" t="s">
+    <row r="327" spans="1:4">
+      <c r="A327" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C327" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C328" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B329" t="s">
+        <v>347</v>
+      </c>
+      <c r="C329" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
         <v>323</v>
-      </c>
-      <c r="B327" t="s">
-        <v>347</v>
-      </c>
-      <c r="C327" t="s">
-        <v>353</v>
-      </c>
-      <c r="D327" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" hidden="1">
-      <c r="A328" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C328" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" hidden="1">
-      <c r="A329" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C329" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" hidden="1">
-      <c r="A330" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="B330" t="s">
         <v>347</v>
       </c>
       <c r="C330" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" hidden="1">
+        <v>354</v>
+      </c>
+      <c r="D330" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>323</v>
       </c>
@@ -6418,27 +6405,27 @@
         <v>347</v>
       </c>
       <c r="C331" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D331" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>323</v>
       </c>
       <c r="B332" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C332" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D332" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>323</v>
       </c>
@@ -6446,13 +6433,13 @@
         <v>356</v>
       </c>
       <c r="C333" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D333" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>323</v>
       </c>
@@ -6460,13 +6447,13 @@
         <v>356</v>
       </c>
       <c r="C334" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D334" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>323</v>
       </c>
@@ -6474,13 +6461,13 @@
         <v>356</v>
       </c>
       <c r="C335" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D335" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>323</v>
       </c>
@@ -6488,10 +6475,10 @@
         <v>356</v>
       </c>
       <c r="C336" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D336" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6502,13 +6489,13 @@
         <v>356</v>
       </c>
       <c r="C337" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D337" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>323</v>
       </c>
@@ -6516,13 +6503,13 @@
         <v>356</v>
       </c>
       <c r="C338" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D338" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>323</v>
       </c>
@@ -6530,13 +6517,13 @@
         <v>356</v>
       </c>
       <c r="C339" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D339" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>323</v>
       </c>
@@ -6544,13 +6531,13 @@
         <v>356</v>
       </c>
       <c r="C340" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D340" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>323</v>
       </c>
@@ -6558,13 +6545,13 @@
         <v>356</v>
       </c>
       <c r="C341" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D341" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>323</v>
       </c>
@@ -6572,13 +6559,13 @@
         <v>356</v>
       </c>
       <c r="C342" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D342" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>323</v>
       </c>
@@ -6586,13 +6573,13 @@
         <v>356</v>
       </c>
       <c r="C343" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D343" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>323</v>
       </c>
@@ -6600,13 +6587,13 @@
         <v>356</v>
       </c>
       <c r="C344" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D344" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>323</v>
       </c>
@@ -6614,38 +6601,38 @@
         <v>356</v>
       </c>
       <c r="C345" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D345" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1">
-      <c r="A346" t="s">
-        <v>323</v>
+    <row r="346" spans="1:4">
+      <c r="A346" s="3" t="s">
+        <v>438</v>
       </c>
       <c r="B346" t="s">
         <v>356</v>
       </c>
       <c r="C346" t="s">
-        <v>370</v>
-      </c>
-      <c r="D346" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" hidden="1">
-      <c r="A347" s="4" t="s">
-        <v>440</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>371</v>
       </c>
       <c r="B347" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C347" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" hidden="1">
+        <v>373</v>
+      </c>
+      <c r="D347" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>371</v>
       </c>
@@ -6653,13 +6640,13 @@
         <v>372</v>
       </c>
       <c r="C348" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D348" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>371</v>
       </c>
@@ -6667,13 +6654,13 @@
         <v>372</v>
       </c>
       <c r="C349" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D349" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>371</v>
       </c>
@@ -6681,13 +6668,13 @@
         <v>372</v>
       </c>
       <c r="C350" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D350" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>371</v>
       </c>
@@ -6695,13 +6682,13 @@
         <v>372</v>
       </c>
       <c r="C351" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D351" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>371</v>
       </c>
@@ -6709,13 +6696,13 @@
         <v>372</v>
       </c>
       <c r="C352" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D352" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -6723,13 +6710,13 @@
         <v>372</v>
       </c>
       <c r="C353" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D353" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>371</v>
       </c>
@@ -6737,13 +6724,13 @@
         <v>372</v>
       </c>
       <c r="C354" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D354" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>371</v>
       </c>
@@ -6751,13 +6738,13 @@
         <v>372</v>
       </c>
       <c r="C355" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D355" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>371</v>
       </c>
@@ -6765,10 +6752,10 @@
         <v>372</v>
       </c>
       <c r="C356" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D356" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6779,13 +6766,13 @@
         <v>372</v>
       </c>
       <c r="C357" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D357" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>371</v>
       </c>
@@ -6793,13 +6780,13 @@
         <v>372</v>
       </c>
       <c r="C358" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D358" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>371</v>
       </c>
@@ -6807,27 +6794,27 @@
         <v>372</v>
       </c>
       <c r="C359" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D359" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>371</v>
       </c>
       <c r="B360" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="C360" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D360" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>371</v>
       </c>
@@ -6835,13 +6822,13 @@
         <v>386</v>
       </c>
       <c r="C361" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D361" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>371</v>
       </c>
@@ -6849,13 +6836,13 @@
         <v>386</v>
       </c>
       <c r="C362" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D362" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>371</v>
       </c>
@@ -6863,13 +6850,13 @@
         <v>386</v>
       </c>
       <c r="C363" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D363" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>371</v>
       </c>
@@ -6877,13 +6864,13 @@
         <v>386</v>
       </c>
       <c r="C364" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D364" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>371</v>
       </c>
@@ -6891,10 +6878,10 @@
         <v>386</v>
       </c>
       <c r="C365" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D365" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6905,13 +6892,13 @@
         <v>386</v>
       </c>
       <c r="C366" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D366" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>371</v>
       </c>
@@ -6919,13 +6906,13 @@
         <v>386</v>
       </c>
       <c r="C367" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D367" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>371</v>
       </c>
@@ -6933,13 +6920,13 @@
         <v>386</v>
       </c>
       <c r="C368" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D368" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>371</v>
       </c>
@@ -6947,13 +6934,13 @@
         <v>386</v>
       </c>
       <c r="C369" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D369" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>371</v>
       </c>
@@ -6961,27 +6948,27 @@
         <v>386</v>
       </c>
       <c r="C370" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D370" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C371" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D371" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -6989,10 +6976,10 @@
         <v>398</v>
       </c>
       <c r="C372" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D372" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7003,13 +6990,13 @@
         <v>398</v>
       </c>
       <c r="C373" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D373" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>371</v>
       </c>
@@ -7017,13 +7004,13 @@
         <v>398</v>
       </c>
       <c r="C374" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D374" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>371</v>
       </c>
@@ -7031,13 +7018,13 @@
         <v>398</v>
       </c>
       <c r="C375" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D375" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>371</v>
       </c>
@@ -7045,13 +7032,13 @@
         <v>398</v>
       </c>
       <c r="C376" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D376" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>371</v>
       </c>
@@ -7059,13 +7046,13 @@
         <v>398</v>
       </c>
       <c r="C377" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D377" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>371</v>
       </c>
@@ -7073,13 +7060,13 @@
         <v>398</v>
       </c>
       <c r="C378" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D378" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>371</v>
       </c>
@@ -7087,13 +7074,13 @@
         <v>398</v>
       </c>
       <c r="C379" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D379" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>371</v>
       </c>
@@ -7101,13 +7088,13 @@
         <v>398</v>
       </c>
       <c r="C380" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D380" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>371</v>
       </c>
@@ -7115,13 +7102,13 @@
         <v>398</v>
       </c>
       <c r="C381" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D381" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>371</v>
       </c>
@@ -7129,13 +7116,13 @@
         <v>398</v>
       </c>
       <c r="C382" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D382" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>371</v>
       </c>
@@ -7143,13 +7130,13 @@
         <v>398</v>
       </c>
       <c r="C383" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D383" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>371</v>
       </c>
@@ -7157,24 +7144,24 @@
         <v>398</v>
       </c>
       <c r="C384" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D384" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>371</v>
       </c>
       <c r="B385" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="C385" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D385" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7185,13 +7172,13 @@
         <v>413</v>
       </c>
       <c r="C386" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D386" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" hidden="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>371</v>
       </c>
@@ -7199,13 +7186,13 @@
         <v>413</v>
       </c>
       <c r="C387" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D387" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>371</v>
       </c>
@@ -7213,13 +7200,13 @@
         <v>413</v>
       </c>
       <c r="C388" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D388" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>371</v>
       </c>
@@ -7227,13 +7214,13 @@
         <v>413</v>
       </c>
       <c r="C389" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D389" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>371</v>
       </c>
@@ -7241,13 +7228,13 @@
         <v>413</v>
       </c>
       <c r="C390" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D390" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>371</v>
       </c>
@@ -7255,13 +7242,13 @@
         <v>413</v>
       </c>
       <c r="C391" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D391" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>371</v>
       </c>
@@ -7269,13 +7256,13 @@
         <v>413</v>
       </c>
       <c r="C392" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D392" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>371</v>
       </c>
@@ -7283,13 +7270,13 @@
         <v>413</v>
       </c>
       <c r="C393" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D393" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>371</v>
       </c>
@@ -7297,13 +7284,13 @@
         <v>413</v>
       </c>
       <c r="C394" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D394" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>371</v>
       </c>
@@ -7311,13 +7298,13 @@
         <v>413</v>
       </c>
       <c r="C395" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D395" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>371</v>
       </c>
@@ -7325,34 +7312,14 @@
         <v>413</v>
       </c>
       <c r="C396" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D396" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1">
-      <c r="A397" t="s">
-        <v>371</v>
-      </c>
-      <c r="B397" t="s">
-        <v>413</v>
-      </c>
-      <c r="C397" t="s">
-        <v>425</v>
-      </c>
-      <c r="D397" t="s">
-        <v>435</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D397" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D396" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
